--- a/bruh.xlsx
+++ b/bruh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,526 +453,474 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Somu</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>68</v>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
+          <t>a1237d61e984cf8c5c5f8e5ac920e2ed</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Day &amp; Shankar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Peddireddi &amp; Penmatcha</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kiku</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>74</v>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
+          <t>2306e3ca11346166ec57ef834568cbb2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chun &amp; Kumar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gilburn &amp; Sholes</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amol</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>77</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
+          <t>f9617b87556a08271fcf622a63ab46fe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jiang &amp; Li</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lewis &amp; Seth</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lini</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>78</v>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
+          <t>945f5b867596258d978ba1dc770e4b57</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Durvasula &amp; Li</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Toric &amp; Troester</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a1237d61e984cf8c5c5f8e5ac920e2ed</t>
+          <t>544372dfc7f5fb7b26b377d78107fbf0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Day &amp; Shankar</t>
+          <t>Berg &amp; Rumsey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Peddireddi &amp; Penmatcha</t>
+          <t>Bauer &amp; Patel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2306e3ca11346166ec57ef834568cbb2</t>
+          <t>dbf15b8a22cf9bfa8bbdc317467e3dcb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chun &amp; Kumar</t>
+          <t>Proctor &amp; Watts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gilburn &amp; Sholes</t>
+          <t>Korzay &amp; Marks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>f9617b87556a08271fcf622a63ab46fe</t>
+          <t>21a39da4c1a5dd6f5632127dad12c250</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jiang &amp; Li</t>
+          <t>Khan &amp; Wong</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lewis &amp; Seth</t>
+          <t>Kim &amp; Swenson</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>945f5b867596258d978ba1dc770e4b57</t>
+          <t>db4b221322dcce750f67f6df78c2aba0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Durvasula &amp; Li</t>
+          <t>Garcia &amp; Johnson</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Toric &amp; Troester</t>
+          <t>Curtis &amp; Flores</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>544372dfc7f5fb7b26b377d78107fbf0</t>
+          <t>5e703a8ec24194d77d658704c1dfd1e3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Berg &amp; Rumsey</t>
+          <t>Sanyal &amp; Tambe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bauer &amp; Patel</t>
+          <t>Kanyal &amp; Ramisetty</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dbf15b8a22cf9bfa8bbdc317467e3dcb</t>
+          <t>cebc6c5e67427ecbc449102941c05f35</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proctor &amp; Watts</t>
+          <t>Neuner &amp; Talamantez</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Korzay &amp; Marks</t>
+          <t>Saravanan &amp; Sekandari</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21a39da4c1a5dd6f5632127dad12c250</t>
+          <t>f8f513f9b02efbae0f279ebb9522117d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Khan &amp; Wong</t>
+          <t>Aragam &amp; Zhong</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kim &amp; Swenson</t>
+          <t>Dominguez &amp; Hunter</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>db4b221322dcce750f67f6df78c2aba0</t>
+          <t>aba07474d0e904a48dbe1d2dd6c2f8fd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Garcia &amp; Johnson</t>
+          <t>Enwiller &amp; Javadpoor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Curtis &amp; Flores</t>
+          <t>Pike &amp; Planchon</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5e703a8ec24194d77d658704c1dfd1e3</t>
+          <t>f2d143c3a1992b8f419b1e60f496e7f7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sanyal &amp; Tambe</t>
+          <t>Eugenio &amp; Roman</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kanyal &amp; Ramisetty</t>
+          <t>Hays &amp; Justice</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cebc6c5e67427ecbc449102941c05f35</t>
+          <t>0c213c5e8f4c2463c82accc264e08b21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Neuner &amp; Talamantez</t>
+          <t>Lakshmin &amp; Woulfe</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Saravanan &amp; Sekandari</t>
+          <t>Parau &amp; Yousuf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>f8f513f9b02efbae0f279ebb9522117d</t>
+          <t>38a40ab8941fa0151ae2376037f52dd1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aragam &amp; Zhong</t>
+          <t>Czapek &amp; Geering</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dominguez &amp; Hunter</t>
+          <t>Han &amp; Krieger</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>aba07474d0e904a48dbe1d2dd6c2f8fd</t>
+          <t>065febeccd0da05a5ba8600d9ecb3b7a</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Enwiller &amp; Javadpoor</t>
+          <t>Archuleta &amp; Hockin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pike &amp; Planchon</t>
+          <t>Geering &amp; Sunga</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f2d143c3a1992b8f419b1e60f496e7f7</t>
+          <t>64b6321485332aa54095c39465edb349</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Eugenio &amp; Roman</t>
+          <t>Gurudu &amp; Jiang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hays &amp; Justice</t>
+          <t>Shakir &amp; Shim</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0c213c5e8f4c2463c82accc264e08b21</t>
+          <t>811a7c3b2ffffef77f39548901e06621</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lakshmin &amp; Woulfe</t>
+          <t>Razaghi &amp; Steiner</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parau &amp; Yousuf</t>
+          <t>Brock &amp; Jones</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>38a40ab8941fa0151ae2376037f52dd1</t>
+          <t>68549125321029d88c5cd2e1bead0c5c</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Czapek &amp; Geering</t>
+          <t>Changho &amp; Lazna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Han &amp; Krieger</t>
+          <t>Bianes &amp; Marquez-Silva</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>065febeccd0da05a5ba8600d9ecb3b7a</t>
+          <t>8dcea20ca6b38eff2e0e73ee00012ecd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Archuleta &amp; Hockin</t>
+          <t>Kumar &amp; Vishnuvajhala</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Geering &amp; Sunga</t>
+          <t>Cho &amp; Kim</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>64b6321485332aa54095c39465edb349</t>
+          <t>28a380c2ada7987a1af37f4315f92ad5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gurudu &amp; Jiang</t>
+          <t>Ghatigar &amp; Wintring</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shakir &amp; Shim</t>
+          <t>Eng &amp; Schoenborn</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>811a7c3b2ffffef77f39548901e06621</t>
+          <t>3c1f55fc42a8f42defe21123b426791a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Razaghi &amp; Steiner</t>
+          <t>Luo &amp; Simon</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brock &amp; Jones</t>
+          <t>Krekeler &amp; Tran</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>68549125321029d88c5cd2e1bead0c5c</t>
+          <t>3fde9058a90d55a8a09debc4d680d834</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Changho &amp; Lazna</t>
+          <t>Amanti &amp; Read</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bianes &amp; Marquez-Silva</t>
+          <t>Obrecht &amp; Petri</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8dcea20ca6b38eff2e0e73ee00012ecd</t>
+          <t>68cd10a88bb07e6fd360eafdbf35d3d8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kumar &amp; Vishnuvajhala</t>
+          <t>Fan &amp; Yu</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cho &amp; Kim</t>
+          <t>Azzolina &amp; Dohr</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>28a380c2ada7987a1af37f4315f92ad5</t>
+          <t>7f94da7d53de68cf60badeb62a64242d</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ghatigar &amp; Wintring</t>
+          <t>Kelly &amp; Ramani</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eng &amp; Schoenborn</t>
+          <t>Frederiksen &amp; Willyard</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3c1f55fc42a8f42defe21123b426791a</t>
+          <t>cdce63d2dc7a0e73107d84c791511f87</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Luo &amp; Simon</t>
+          <t>Buls &amp; Uehara</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Krekeler &amp; Tran</t>
+          <t>Kurspahic &amp; Taduri</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3fde9058a90d55a8a09debc4d680d834</t>
+          <t>7814cfd73d9e2e5ae71bf07becf61d2e</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amanti &amp; Read</t>
+          <t>Nguyen &amp; St.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Obrecht &amp; Petri</t>
+          <t>Sinha &amp; Zhang</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>68cd10a88bb07e6fd360eafdbf35d3d8</t>
+          <t>5efbbd97605a6b54fc9b0a1c9c836d4e</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fan &amp; Yu</t>
+          <t>Kang &amp; King</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>Azzolina &amp; Dohr</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7f94da7d53de68cf60badeb62a64242d</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Kelly &amp; Ramani</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Frederiksen &amp; Willyard</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>cdce63d2dc7a0e73107d84c791511f87</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Buls &amp; Uehara</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Kurspahic &amp; Taduri</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7814cfd73d9e2e5ae71bf07becf61d2e</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Nguyen &amp; St.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sinha &amp; Zhang</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5efbbd97605a6b54fc9b0a1c9c836d4e</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Kang &amp; King</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>Herig &amp; Koppell</t>
         </is>
